--- a/Raw_data_OES.xlsx
+++ b/Raw_data_OES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prateekm/Git/papers/mehta-plasma-N2-vibrations/supporting-info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prateekm/Git/papers/SI-mehta-plasma-N2-vibrations/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -163,153 +163,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>575733</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>137159</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD77130-44D3-4AD4-B3E2-74C2F8F080AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2011680"/>
-          <a:ext cx="2971800" cy="2514600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C14097B-2188-41D2-BB23-13BF7142957A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3512820" y="228600"/>
-          <a:ext cx="5943600" cy="2514600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E255530-B5EE-4F7C-A07B-9F1CA3B93CE7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4869180" y="3108960"/>
-          <a:ext cx="5943600" cy="2514600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -808,7 +661,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7338,7 +7190,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -42192,6 +42043,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>